--- a/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
+++ b/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vferreira\Documents\GitHub\TCC.github.io\WorkshopDeCaracteristicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
-    <sheet name="Definição de Baselines" sheetId="2" r:id="rId2"/>
+    <sheet name="Crítico" sheetId="2" r:id="rId2"/>
+    <sheet name="Importante" sheetId="3" r:id="rId3"/>
+    <sheet name="Útil" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
   <si>
     <t>Integrantes do grupo</t>
   </si>
@@ -204,12 +206,6 @@
     <t>Cadastrar os clientes que utilizam os serviços e novos clientes através do particular.</t>
   </si>
   <si>
-    <t>Consistência dos dados</t>
-  </si>
-  <si>
-    <t>Ao cadastrar pacientes, empresas, usuários, etc., verificar a base de dados para não gerar duplicidade de informações.</t>
-  </si>
-  <si>
     <t>Documentos:</t>
   </si>
   <si>
@@ -229,6 +225,210 @@
   </si>
   <si>
     <t>Definição das baselines do projeto.</t>
+  </si>
+  <si>
+    <t>Controle de acesso</t>
+  </si>
+  <si>
+    <t>Usuários e perfis com permissão de acesso específicos, usuário e senha para acessar o sistema.</t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t>Notificações por e-mail</t>
+  </si>
+  <si>
+    <t>Notificação por e-mail quando um consulta for agendada, alterada ou cancelada.</t>
+  </si>
+  <si>
+    <t>ÚTIL</t>
+  </si>
+  <si>
+    <t>Notificações por sms</t>
+  </si>
+  <si>
+    <t>Notificação por sms para avisar o paciente.</t>
+  </si>
+  <si>
+    <t>Site responsivo</t>
+  </si>
+  <si>
+    <t>Site responsivo que consiga ser bem visualizado em qualquer dispositivo.</t>
+  </si>
+  <si>
+    <t>Visualização da agenda do dia</t>
+  </si>
+  <si>
+    <t>Visualização resumida com a agenda do dia.</t>
+  </si>
+  <si>
+    <t>Mapa com a localização do atendimento</t>
+  </si>
+  <si>
+    <t>Mapa com o endereço do paciente, parceiro ou fornecedor que será visitado.</t>
+  </si>
+  <si>
+    <t>Cadastro de parceiros</t>
+  </si>
+  <si>
+    <t>Cadastro de parceiros para divulgação, suporte, etc.</t>
+  </si>
+  <si>
+    <t>Cadastro de fornecedores</t>
+  </si>
+  <si>
+    <t>Cadastro de fornecedores.</t>
+  </si>
+  <si>
+    <t>Controle de funcionalidades por usuário</t>
+  </si>
+  <si>
+    <t>Permite que usuário visualize apenas as funcionalidades que possuem acessos realizados no cadastro.</t>
+  </si>
+  <si>
+    <t>Backup de base de dados</t>
+  </si>
+  <si>
+    <t>Redundância de banco de dados em caso de indisponibilidade do principal.</t>
+  </si>
+  <si>
+    <t>Relatório de operações realizadas por usuário</t>
+  </si>
+  <si>
+    <t>Permite visualizar quais foram as ações de determinado usuário no sistema.</t>
+  </si>
+  <si>
+    <t>Controle de alteração de agendamento</t>
+  </si>
+  <si>
+    <t>Registrar as alterações que forem realizadas na agenda por usuário.</t>
+  </si>
+  <si>
+    <t>Log da aplicação</t>
+  </si>
+  <si>
+    <t>Registro de todas as operações realizadas no sistema, com datas, horários, operações realizadas e usuários.</t>
+  </si>
+  <si>
+    <t>Controle de prontuário do paciente</t>
+  </si>
+  <si>
+    <t>Armazenar histórico do paciente e controlar por data/hora de registro.</t>
+  </si>
+  <si>
+    <t>Enviar e-mail de agendamento para o paciente</t>
+  </si>
+  <si>
+    <t>A partir de um agendamento realizado o sistema deve enviar e-mail para o paciente com dados do agendamento.</t>
+  </si>
+  <si>
+    <t>Enviar notificação de agendamento para a psicóloga</t>
+  </si>
+  <si>
+    <t>Para agendamentos realizados por outros usuários enviar notificação para a psicóloga.</t>
+  </si>
+  <si>
+    <t>Enviar alerta de consulta para o paciente</t>
+  </si>
+  <si>
+    <t>Enviar para o paciente um lembrete da consulta.</t>
+  </si>
+  <si>
+    <t>Hospedagem na nuvem</t>
+  </si>
+  <si>
+    <t>Servidor de hospedagem da aplicação.</t>
+  </si>
+  <si>
+    <t>Disponibilizar na agenda somente horários disponíveis</t>
+  </si>
+  <si>
+    <t>Exibir na agenda somente os horários disponíveis para agendamento, permitir encaixes.</t>
+  </si>
+  <si>
+    <t>Cadastro de convênio médico</t>
+  </si>
+  <si>
+    <t>Permitir cadastrar os convênios que prestará serviço .</t>
+  </si>
+  <si>
+    <t>Notificação de alteração na agenda</t>
+  </si>
+  <si>
+    <t>Receber uma notificação se houver uma alteração na agenda, inclusão, alteração ou exclusão de um atendimento.</t>
+  </si>
+  <si>
+    <t>Cadastro de possíveis parceiros</t>
+  </si>
+  <si>
+    <t>Cadastrar as empresas que já entrou em contato para uma possível parceria.</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Exibir as consultas e compromissos do dia/semana/mês.</t>
+  </si>
+  <si>
+    <t>Cadastro de modelos de propostas</t>
+  </si>
+  <si>
+    <t>Cadastrar um modelo pre configurado com uma proposta para ser enviado para um possível parceria/empresa.</t>
+  </si>
+  <si>
+    <t>Tecnologias opensource</t>
+  </si>
+  <si>
+    <t>Usar tecnologias opensource para redução de custos.</t>
+  </si>
+  <si>
+    <t>Relatório paciente</t>
+  </si>
+  <si>
+    <t>Relatório da consulta de um paciente.</t>
+  </si>
+  <si>
+    <t>Troca de Senha</t>
+  </si>
+  <si>
+    <t>Permitir o usuário trocar a senha padrão após o primeiro acesso.</t>
+  </si>
+  <si>
+    <t>Recuperação de Senha</t>
+  </si>
+  <si>
+    <t>A opção de recuperar senha caso o usuário não lembre da  senha.</t>
+  </si>
+  <si>
+    <t>Configurações/Ajustes</t>
+  </si>
+  <si>
+    <t>Um menu para configurar/ajustar as funcionalidades da página: acesso, etc.</t>
+  </si>
+  <si>
+    <t>Integração com o servidor de e-mails</t>
+  </si>
+  <si>
+    <t>Para notificar caso algum evento ocorra: troca de senha, agendamento, cadastro.</t>
+  </si>
+  <si>
+    <t>Suporte</t>
+  </si>
+  <si>
+    <t>Deixar um link para entrar em contato com o suporte da solução.</t>
+  </si>
+  <si>
+    <t>Incluir Prontuário</t>
+  </si>
+  <si>
+    <t>Destinado a incluir observações da consulta e acompanhamento.</t>
+  </si>
+  <si>
+    <t>Exportar Prontuário</t>
+  </si>
+  <si>
+    <t>Exportar prontuário para um documento de texto.</t>
   </si>
 </sst>
 </file>
@@ -283,24 +483,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -313,6 +495,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -329,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -387,60 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -461,19 +607,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,12 +677,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -565,70 +722,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -647,29 +778,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1005,7 +1176,7 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1108,181 +1279,181 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41" t="s">
+      <c r="A13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
+        <v>64</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
@@ -1291,15 +1462,15 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -1308,15 +1479,15 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1325,15 +1496,15 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -1342,15 +1513,15 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1359,15 +1530,15 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1376,15 +1547,15 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
@@ -1404,25 +1575,25 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
@@ -1566,15 +1737,15 @@
     <row r="30" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:O12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:O20"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:O12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B14" location="'Lista de Características'!A1" display="Lista de Características"/>
@@ -1595,11 +1766,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,366 +1778,880 @@
     <col min="1" max="1" width="3" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="138" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>27</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
         <v>30</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
         <v>31</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>32</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>33</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <v>37</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
         <v>39</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
         <v>40</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
         <v>42</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
         <v>43</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>45</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
         <v>50</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
         <v>52</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
         <v>55</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>56</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>59</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:D57">
+    <sortCondition ref="D1"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D23">
       <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>47</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
+        <v>22</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>35</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>38</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>14</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>51</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>53</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>28</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>54</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <v>16</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>19</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <v>29</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>46</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <v>34</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>20</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
+        <v>21</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <v>8</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <v>48</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <v>41</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <v>1</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D21">
+      <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A2:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="34" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>6</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
+        <v>7</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>11</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>12</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>13</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>17</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>23</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>24</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>25</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <v>26</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>36</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <v>44</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>49</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
+++ b/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>Integrantes do grupo</t>
   </si>
@@ -212,19 +212,10 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Definição de Baselines</t>
-  </si>
-  <si>
     <t>Nome do sistema</t>
   </si>
   <si>
     <t>Objetivo do sistema</t>
-  </si>
-  <si>
-    <t>Lista de características</t>
-  </si>
-  <si>
-    <t>Definição das baselines do projeto.</t>
   </si>
   <si>
     <t>Controle de acesso</t>
@@ -438,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,14 +440,6 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,14 +467,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,9 +677,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -714,39 +688,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -754,96 +812,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,59 +1250,59 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
@@ -1352,74 +1323,74 @@
     </row>
     <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1433,27 +1404,21 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
@@ -1462,15 +1427,15 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -1479,15 +1444,15 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1496,15 +1461,15 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -1513,15 +1478,15 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1530,15 +1495,15 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1547,15 +1512,15 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
@@ -1737,20 +1702,16 @@
     <row r="30" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:O20"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:O12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:O20"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:O8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B14" location="'Lista de Características'!A1" display="Lista de Características"/>
-    <hyperlink ref="B14:F14" location="'Definição de Baselines'!A1" display="Definição de Baselines"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1768,7 +1729,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
@@ -1783,324 +1744,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="32">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="32">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="32">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="32">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="32">
         <v>9</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="32">
         <v>10</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="32">
         <v>15</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="32">
         <v>18</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="32">
         <v>27</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="32">
         <v>30</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="32">
         <v>31</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="32">
         <v>32</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="32">
         <v>33</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="32">
         <v>37</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="32">
         <v>39</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="32">
         <v>40</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="32">
         <v>42</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="32">
         <v>43</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
+      <c r="A20" s="32">
         <v>45</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="32">
         <v>50</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="32">
         <v>52</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="32">
         <v>55</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2127,305 +2088,305 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="32">
         <v>47</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>35</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>38</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>14</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>51</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>53</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>28</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>54</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>19</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>29</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>46</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>34</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>20</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>48</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <v>22</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <v>35</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
-        <v>38</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="D19" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>41</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
-        <v>14</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <v>51</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>53</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
-        <v>28</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
-        <v>54</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
-        <v>16</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
-        <v>19</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
-        <v>29</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>46</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <v>34</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
-        <v>20</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
-        <v>21</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
-        <v>8</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
-        <v>48</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
-        <v>41</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>68</v>
+      <c r="D20" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="32">
         <v>1</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>68</v>
+      <c r="B21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2448,207 +2409,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="34" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="3" style="22" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="32">
         <v>6</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>7</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <v>7</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <v>11</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="C4" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>12</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="D5" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>13</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
-        <v>12</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="C6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
-        <v>13</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>71</v>
+      <c r="D6" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="32">
         <v>17</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>71</v>
+      <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="32">
         <v>23</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>24</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D9" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>25</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
-        <v>24</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="C10" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D10" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>26</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
-        <v>25</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="C11" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
-        <v>26</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>71</v>
+      <c r="D11" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="32">
         <v>36</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>71</v>
+      <c r="B12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="32">
         <v>44</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>71</v>
+      <c r="B13" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="32">
         <v>49</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>71</v>
+      <c r="B14" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
+++ b/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
@@ -779,6 +779,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,13 +813,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,7 +1147,7 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1250,59 +1250,59 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
@@ -1325,72 +1325,72 @@
       <c r="A10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
     </row>
     <row r="11" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1405,20 +1405,20 @@
     </row>
     <row r="14" spans="1:15" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
@@ -1427,15 +1427,15 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -1444,15 +1444,15 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1461,15 +1461,15 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -1478,15 +1478,15 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1495,15 +1495,15 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1512,15 +1512,15 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
     </row>
     <row r="21" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
@@ -1727,11 +1727,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,29 +1841,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>15</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>18</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>17</v>
@@ -1871,41 +1871,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>27</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>30</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="45" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="35" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>31</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>17</v>
@@ -1913,41 +1913,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>32</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>33</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>37</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>17</v>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>17</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>17</v>
@@ -1983,41 +1983,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>43</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>17</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>17</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
-        <v>52</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>17</v>
@@ -2053,15 +2053,43 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
+        <v>45</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>52</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>55</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D25" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2070,7 +2098,7 @@
     <sortCondition ref="D1"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14 D15:D25">
       <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2080,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,29 +2137,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
-        <v>22</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>65</v>
@@ -2139,13 +2167,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>35</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>108</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>65</v>
@@ -2153,27 +2181,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>14</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>111</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>65</v>
@@ -2181,13 +2209,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>51</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>65</v>
@@ -2195,27 +2223,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>53</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>128</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>28</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>65</v>
@@ -2223,13 +2251,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>54</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>130</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>65</v>
@@ -2237,13 +2265,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>16</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>65</v>
@@ -2251,13 +2279,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>65</v>
@@ -2265,13 +2293,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>65</v>
@@ -2279,27 +2307,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>46</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>65</v>
@@ -2321,13 +2349,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>21</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>65</v>
@@ -2335,13 +2363,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>65</v>
@@ -2349,49 +2377,21 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>41</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>1</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4 D18:D19 D6:D7 D9:D14 D15 D16:D17">
       <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A2:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>68</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>68</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
-        <v>13</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>68</v>
@@ -2502,13 +2502,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
-        <v>17</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>84</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>68</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>68</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>68</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
-        <v>25</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>68</v>
@@ -2558,61 +2558,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
-        <v>26</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
+        <v>51</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>31</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>44</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>116</v>
+      <c r="C13" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D11:D14">
+      <formula1>"CRÍTICO,IMPORTANTE,ÚTIL,DEFINIR"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
+++ b/WorkshopDeCaracteristicas/Definição de Baselines.xls.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
-    <sheet name="Crítico" sheetId="2" r:id="rId2"/>
-    <sheet name="Importante" sheetId="3" r:id="rId3"/>
-    <sheet name="Útil" sheetId="4" r:id="rId4"/>
+    <sheet name="Baseline01" sheetId="2" r:id="rId2"/>
+    <sheet name="Baseline02" sheetId="3" r:id="rId3"/>
+    <sheet name="Baseline03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1729,7 +1729,7 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
